--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Guirelli\Desktop\Henrique\fatec\repos\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9927CB-3E67-4A62-A9B1-4B51B6C04E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38098D48-58CB-45E1-BB9A-130B911BEC69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Senha arrumar</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Salvar chat / notificação de chat</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>em vez de tirar o botão, agora da pra salvar sem carregar (acho que é interessante manter o botão carregar, se o usuario quiser ver a rota antes de salvar não podemos tirar essa opção dele, viola o feedback das heuristicas de nielsen)</t>
   </si>
 </sst>
 </file>
@@ -436,99 +442,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062782F5-E588-42A6-926C-E4367209F139}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>

--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Guirelli\Desktop\Henrique\fatec\repos\fatecarona\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\repos\fatec\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38098D48-58CB-45E1-BB9A-130B911BEC69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD16DA-49DE-4AEB-8589-5984E251CA0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Senha arrumar</t>
   </si>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +518,9 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\repos\fatec\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AD16DA-49DE-4AEB-8589-5984E251CA0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6722CE-2C6E-4BEA-954D-5F442BABEBB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
+    <workbookView xWindow="2640" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Senha arrumar</t>
   </si>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +466,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\repos\fatec\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6722CE-2C6E-4BEA-954D-5F442BABEBB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DACB13-A33C-4FE0-8CF9-E05666BE0C8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\repos\fatec\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DACB13-A33C-4FE0-8CF9-E05666BE0C8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB970A59-9BED-4988-965F-7D7A2CC33B61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Senha arrumar</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>em vez de tirar o botão, agora da pra salvar sem carregar (acho que é interessante manter o botão carregar, se o usuario quiser ver a rota antes de salvar não podemos tirar essa opção dele, viola o feedback das heuristicas de nielsen)</t>
+  </si>
+  <si>
+    <t>complexo</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +563,16 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\repos\fatec\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB970A59-9BED-4988-965F-7D7A2CC33B61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1E2EED-0895-4FA5-9D27-E6C45CE7051F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Robson" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Senha arrumar</t>
   </si>
@@ -94,15 +94,71 @@
   </si>
   <si>
     <t>complexo</t>
+  </si>
+  <si>
+    <t>Necessário</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>Dispensavel</t>
+  </si>
+  <si>
+    <t>Alterar para Material Design</t>
+  </si>
+  <si>
+    <t>Colocar Tick</t>
+  </si>
+  <si>
+    <t>Tirar "geralmente de..."</t>
+  </si>
+  <si>
+    <t>Mudar Relógico/Calendario</t>
+  </si>
+  <si>
+    <t>autocomplete email</t>
+  </si>
+  <si>
+    <t>padronizar componente de selecionar rota</t>
+  </si>
+  <si>
+    <t>auhsadg protabilidade</t>
+  </si>
+  <si>
+    <t>gps/localização do motorista</t>
+  </si>
+  <si>
+    <t>validar ra/rm(botão aluno/funcionario)</t>
+  </si>
+  <si>
+    <t>colocar ponto no mapa para pontos de interesse</t>
+  </si>
+  <si>
+    <t>manter conectado</t>
+  </si>
+  <si>
+    <t>cadastrar casa/trabalho/fatec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,29 +502,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062782F5-E588-42A6-926C-E4367209F139}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -475,65 +529,62 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -541,41 +592,128 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/features.xlsx
+++ b/docs/features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Henrique\repos\fatec\fatecarona\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1E2EED-0895-4FA5-9D27-E6C45CE7051F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C32F01-3225-4AA5-AC25-963133E1C55C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC52FC83-1E62-41CF-BA03-5670C0B62DFB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Senha arrumar</t>
   </si>
@@ -90,12 +90,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>em vez de tirar o botão, agora da pra salvar sem carregar (acho que é interessante manter o botão carregar, se o usuario quiser ver a rota antes de salvar não podemos tirar essa opção dele, viola o feedback das heuristicas de nielsen)</t>
-  </si>
-  <si>
-    <t>complexo</t>
-  </si>
-  <si>
     <t>Necessário</t>
   </si>
   <si>
@@ -142,6 +136,18 @@
   </si>
   <si>
     <t>cadastrar casa/trabalho/fatec</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ok?</t>
+  </si>
+  <si>
+    <t>tirado todo o mapa</t>
+  </si>
+  <si>
+    <t>retirado ra e rm</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062782F5-E588-42A6-926C-E4367209F139}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,12 +520,12 @@
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -527,7 +533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -535,22 +541,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -558,12 +567,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -571,18 +580,18 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -590,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -601,27 +610,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -629,87 +647,102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
